--- a/pred_ohlcv/54_21/2019-11-01 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1193419.3476</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-707465.519</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-583939.9647</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-583939.9647</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-583939.9647</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-446884.2568999999</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-676648.0792999999</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-932272.0311999999</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-895698.2570999998</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1041787.9696</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-966895.2810999998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1887697.888200971</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>2569023.539500971</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>2771683.046000971</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1932713.186200971</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1660985.651246005</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1301316.434246005</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1522627.212846005</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1628295.461788862</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1003838.401888862</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>889917.181488862</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>691414.163288862</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>693002.655788862</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>680366.856388862</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1036333.724888862</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1028734.981488862</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2881315.729788862</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2726232.722788862</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2720357.317488862</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2720367.317488862</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2587310.044288862</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2493196.282488862</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2319517.820788861</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2266662.681288861</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2196827.646188861</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2211825.646188861</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2062640.929888861</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1763510.400588861</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 PLY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-704515.6078</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-583939.9647</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-583939.9647</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-583939.9647</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1034225.8404</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-664364.3467999999</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-446884.2568999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-446884.2568999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-447874.2568999999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-800971.3558999998</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-800971.3558999998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-676648.0792999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-838611.6371999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-932272.0311999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-895698.2570999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1041787.9696</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-966895.2810999998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-863861.9431999999</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-629185.7462999999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1887697.888200971</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>2569023.539500971</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>2771683.046000971</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>2609966.137500971</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>2408857.832200971</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1932713.186200971</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>2386489.346946005</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2265130.777846005</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1660985.651246005</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1301316.434246005</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>932985.2566460047</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1522627.212846005</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1431237.223988862</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1579167.631188862</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1628295.461788862</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1003838.401888862</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>889917.181488862</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>691414.163288862</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>693002.655788862</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>680366.856388862</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>830445.317688862</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>1036333.724888862</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1028734.981488862</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>2881315.729788862</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>2726232.722788862</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>2720357.317488862</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>2720367.317488862</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>2587310.044288862</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>2340976.339188862</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>2493196.282488862</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>2281502.582788861</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>2319517.820788861</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2266662.681288861</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2196827.646188861</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2211825.646188861</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2062640.929888861</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>1763510.400588861</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2044141.594688861</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
